--- a/automacao_total_stephanie.xlsx
+++ b/automacao_total_stephanie.xlsx
@@ -20,7 +20,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,11 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,7 +547,6 @@
           <t>Planejado</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Automático</t>
@@ -579,7 +582,6 @@
           <t>Planejado</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>Automático</t>
@@ -602,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,6 +663,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -709,6 +716,7 @@
           <t>Imagem a gerar</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -757,6 +765,7 @@
           <t>Imagem a gerar</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -805,6 +814,7 @@
           <t>Imagem a gerar</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -853,6 +863,7 @@
           <t>Imagem a gerar</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -901,6 +912,7 @@
           <t>Imagem a gerar</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -949,6 +961,7 @@
           <t>Imagem a gerar</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -997,6 +1010,7 @@
           <t>Imagem a gerar</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1045,6 +1059,7 @@
           <t>Imagem a gerar</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1093,6 +1108,7 @@
           <t>Imagem a gerar</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1141,6 +1157,7 @@
           <t>Imagem a gerar</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1189,6 +1206,442 @@
           <t>Imagem a gerar</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tendências de marketing digital em 2025</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>marketing digital</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Erros comuns de blogueiros em 2025</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>erros blogueiros</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Erros comuns de blogueiros em 2025</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>erros blogueiros</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Dicas para trabalhar em casa</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>trabalho remoto</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SEO para iniciantes em 2025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SEO básico</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ideias de renda extra em 2025</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>renda extra</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Como monetizar seu site em 2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>monetizar site</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Como ganhar dinheiro online</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ganhar dinheiro online</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Como criar um blog de sucesso em 2025</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>criar blog</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Como criar um blog de sucesso em 2025</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>criar blog</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Erros comuns de blogueiros em 2025</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>erros blogueiros</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SEO para iniciantes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SEO básico</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ideias de renda extra em 2025</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>renda extra</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Dicas para trabalhar em casa</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>trabalho remoto</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ideias de renda extra</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>renda extra</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
